--- a/pred_ohlcv/54_21/2020-01-13 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LTC ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>2674.95158383</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2748.5566668</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2970.7511668</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2875.9263668</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2743.7250668</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2573.6834668</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1848.98159998</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1848.98159998</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1848.98159998</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1836.03949998</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2194.41529998</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2194.41529998</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2194.41529998</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2206.83489998</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>5372.72058808</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>5374.57998808</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>5222.824788080001</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>4937.051588080001</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>4937.244788080001</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4936.592988080001</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4925.693688080001</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4293.778188080001</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4302.778188080001</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4202.175888080002</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4217.362188080002</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4216.836988080002</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4222.146388080002</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4226.464288080002</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4208.519188080002</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4210.128488080002</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4073.341322530004</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4080.876318200004</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4073.898918200004</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3990.193018200004</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3990.023018200004</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3941.043018200004</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3941.752918200004</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3941.843818200004</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3864.170218200004</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3843.401518200004</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3851.871618200004</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>3895.712903350004</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>3822.293103350004</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>3843.297603350004</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>3803.967703350003</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3797.645403350004</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3686.526475070003</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3492.599366690004</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3690.139461250003</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3637.574561250003</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>3771.399461250004</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3752.457161250004</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3743.665661250004</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>3599.473261250004</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>3604.241461250004</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>3572.717761250004</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 LTC ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>1690.25131567</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1656.37201567</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1548.01051567</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1565.23491567</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1567.54841567</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1686.94381567</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1623.01051567</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2398.17158958</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2551.11578958</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2589.53548958</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2679.45158383</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2674.95158383</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2740.46508383</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2774.64788383</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2748.5566668</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2746.1008668</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2743.0413668</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3129.7401668</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3154.5440668</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2994.7512668</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2970.7511668</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>2875.9263668</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2897.5058668</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2881.9818668</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2777.0898668</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2743.7250668</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>2761.86951918</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>2928.65012836</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2909.890128359999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2939.916828359999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2936.733228359999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2874.232928359999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>2863.232928359999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2846.042128359999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>2856.448328359999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>2974.448328359999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>2971.092728359999</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>3040.11772836</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3039.028828359999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1848.98159998</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1848.98159998</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1848.98159998</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1836.03949998</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2194.41529998</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2194.41529998</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2194.41529998</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>2206.83489998</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>2196.12879998</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>2202.47459998</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>2202.47459998</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3818.39509908</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>5372.72058808</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>5374.57998808</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>5222.824788080001</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>4937.051588080001</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>4937.244788080001</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>4936.592988080001</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4925.693688080001</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>4293.778188080001</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4302.778188080001</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4202.175888080002</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4217.362188080002</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4216.836988080002</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4222.146388080002</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4216.739088080002</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4226.464288080002</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4208.519188080002</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4210.128488080002</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>4449.285222530004</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>4128.333522530004</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>4073.341322530004</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>4080.876318200004</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>4073.898918200004</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3990.193018200004</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3990.023018200004</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3941.043018200004</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>3941.739918200004</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3941.752918200004</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3941.843818200004</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3864.170218200004</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3843.401518200004</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>3896.454403350004</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>3812.155603350004</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>3821.572103350004</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>3822.293103350004</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>3843.297603350004</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>3803.967703350003</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3797.645403350004</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3774.133603350003</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3770.038603350004</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3769.839703350004</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3794.864603350004</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3678.295368840003</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>3715.060568840003</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3715.060568840003</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>3686.526475070003</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>3533.283275070004</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>3550.594175070004</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>3560.970275070003</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>3492.599366690004</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>3358.644661250004</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>3358.653661250004</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>3357.818661250004</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>3336.662261250004</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3532.718361250003</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3534.006161250004</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3428.030661250004</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3424.327361250003</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3430.105361250003</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3565.453461250003</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3691.388161250003</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3690.139461250003</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3637.574561250003</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>3570.901761250003</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3555.693761250003</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3629.284961250004</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>3607.589861250003</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>3604.379161250003</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>3754.905961250004</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>3761.501361250004</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3770.300061250004</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3783.731961250004</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>3771.399461250004</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3871.750961250004</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3771.750961250004</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3730.462461250004</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3734.318961250004</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3755.554361250004</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3752.457161250004</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3743.665661250004</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3724.269361250004</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>3724.486661250004</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>3723.486661250004</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>3731.844661250004</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>3694.331961250004</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>3599.473261250004</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>3593.184761250004</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>3644.730861250004</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>3644.739861250004</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>3604.241461250004</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>3572.717761250004</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>3570.791061250004</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>3569.791061250004</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>3351.826761250004</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
